--- a/dist/checklists/core/xlsx/mixs/sc_rnaseq_mixs_core.xlsx
+++ b/dist/checklists/core/xlsx/mixs/sc_rnaseq_mixs_core.xlsx
@@ -15,14 +15,17 @@
     <sheet name="Library Preparation" sheetId="6" r:id="rId6"/>
     <sheet name="Sequencing" sheetId="7" r:id="rId7"/>
     <sheet name="File" sheetId="8" r:id="rId8"/>
-    <sheet name="Raw Data Processing" sheetId="9" r:id="rId9"/>
+    <sheet name="Analysis Derived Data" sheetId="9" r:id="rId9"/>
+    <sheet name="Raw Data Processing" sheetId="10" r:id="rId10"/>
+    <sheet name="Downstream Processing" sheetId="11" r:id="rId11"/>
+    <sheet name="Data Availability Checklist" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="486">
   <si>
     <t>Study ID</t>
   </si>
@@ -87,6 +90,12 @@
     <t>Specific Host</t>
   </si>
   <si>
+    <t>Organism</t>
+  </si>
+  <si>
+    <t>Strain</t>
+  </si>
+  <si>
     <t>Microbial Start Taxon ID</t>
   </si>
   <si>
@@ -102,12 +111,21 @@
     <t>Environmental Medium</t>
   </si>
   <si>
+    <t>Accession Number</t>
+  </si>
+  <si>
     <t>Geographic Location Name</t>
   </si>
   <si>
     <t>Specific Host (optional)</t>
   </si>
   <si>
+    <t>Organism (optional)</t>
+  </si>
+  <si>
+    <t>Strain (optional)</t>
+  </si>
+  <si>
     <t>Microbial Start Taxon ID (optional)</t>
   </si>
   <si>
@@ -123,6 +141,9 @@
     <t>Environmental Medium (optional)</t>
   </si>
   <si>
+    <t>Accession Number (optional)</t>
+  </si>
+  <si>
     <t>Geographic Location Name (optional)</t>
   </si>
   <si>
@@ -165,6 +186,12 @@
     <t>e.g. Tissue culture</t>
   </si>
   <si>
+    <t>A unique alphanumeric reference or identifier assigned to the sample in the study related to NCBI Taxonomy.</t>
+  </si>
+  <si>
+    <t>e.g. accession123</t>
+  </si>
+  <si>
     <t>A list (concatenated and separated) of geographic names less specific than the information captured in the dwc:locality term.</t>
   </si>
   <si>
@@ -642,12 +669,42 @@
     <t>Library Preparation Kit Version</t>
   </si>
   <si>
+    <t>Amplification Method</t>
+  </si>
+  <si>
+    <t>cDNA Amplification Cycles</t>
+  </si>
+  <si>
     <t>Average Size Distribution</t>
   </si>
   <si>
+    <t>Library Construction Method</t>
+  </si>
+  <si>
+    <t>Input Molecule</t>
+  </si>
+  <si>
+    <t>Primer</t>
+  </si>
+  <si>
     <t>Primeness</t>
   </si>
   <si>
+    <t>End Bias</t>
+  </si>
+  <si>
+    <t>Library Strand</t>
+  </si>
+  <si>
+    <t>Spike In</t>
+  </si>
+  <si>
+    <t>Spike Type</t>
+  </si>
+  <si>
+    <t>Spike In Dilution Or Concentration</t>
+  </si>
+  <si>
     <t>i5 Index</t>
   </si>
   <si>
@@ -681,6 +738,27 @@
     <t>Average Size Distribution (optional)</t>
   </si>
   <si>
+    <t>Library Construction Method (optional)</t>
+  </si>
+  <si>
+    <t>Input Molecule (optional)</t>
+  </si>
+  <si>
+    <t>Primer (optional)</t>
+  </si>
+  <si>
+    <t>End Bias (optional)</t>
+  </si>
+  <si>
+    <t>Library Strand (optional)</t>
+  </si>
+  <si>
+    <t>Spike Type (optional)</t>
+  </si>
+  <si>
+    <t>Spike In Dilution Or Concentration (optional)</t>
+  </si>
+  <si>
     <t>Plate ID (optional)</t>
   </si>
   <si>
@@ -714,18 +792,78 @@
     <t>e.g. 2</t>
   </si>
   <si>
+    <t>The method used to amplify the Complementary DNA (cDNA).</t>
+  </si>
+  <si>
+    <t>e.g. PCR</t>
+  </si>
+  <si>
+    <t>The number of cycles used during the Complementary DNA (cDNA) amplification process.</t>
+  </si>
+  <si>
+    <t>e.g. 12</t>
+  </si>
+  <si>
     <t>The average length of RNA fragments in base pairs (BP) after library preparation, indicating the quality and suitability of the RNA for sequencing.</t>
   </si>
   <si>
     <t>e.g. 350</t>
   </si>
   <si>
+    <t>The library construction method (including version) that was used.</t>
+  </si>
+  <si>
+    <t>e.g. Smart-Seq2</t>
+  </si>
+  <si>
+    <t>The specific fraction of biological macromolecule from which the sequencing library is derived.</t>
+  </si>
+  <si>
+    <t>e.g. RNA</t>
+  </si>
+  <si>
+    <t>The type of primer used for reverse transcription. This allows users to identify content of the cDNA library input for mRNA.</t>
+  </si>
+  <si>
+    <t>e.g. Random</t>
+  </si>
+  <si>
     <t>The end from which the molecule was sequenced.</t>
   </si>
   <si>
     <t>e.g. 5'</t>
   </si>
   <si>
+    <t>The end bias of the library.</t>
+  </si>
+  <si>
+    <t>e.g. 3</t>
+  </si>
+  <si>
+    <t>The Complementary DNA (cDNA) strand of the library from which the reads derived from - sense (first), antisense (second), both or none.</t>
+  </si>
+  <si>
+    <t>e.g. Antisense</t>
+  </si>
+  <si>
+    <t>External RNA added to the sample as a control to assess technical variability and normalization in RNA-sequencing. State whether spike-in was used.</t>
+  </si>
+  <si>
+    <t>e.g. Yes</t>
+  </si>
+  <si>
+    <t>The specific type of external RNA used for spiking in, often indicating the source or nature of the control RNA.</t>
+  </si>
+  <si>
+    <t>e.g. Synthetic RNA</t>
+  </si>
+  <si>
+    <t>The final concentration or dilution (for commercial sets) of the spike in mix.</t>
+  </si>
+  <si>
+    <t>e.g. 1:1000</t>
+  </si>
+  <si>
     <t>Barcode sequence used on the i5 adapter during library preparation for identifying samples in multiplexed single-cell RNA-sequencing.</t>
   </si>
   <si>
@@ -801,15 +939,24 @@
     <t>Desired Reads Per Cell</t>
   </si>
   <si>
+    <t>UMI Barcode Read</t>
+  </si>
+  <si>
+    <t>UMI Barcode Offset</t>
+  </si>
+  <si>
+    <t>UMI Barcode Size</t>
+  </si>
+  <si>
+    <t>Cell Barcode Read</t>
+  </si>
+  <si>
     <t>Cell Barcode Offset</t>
   </si>
   <si>
     <t>Cell Barcode Size</t>
   </si>
   <si>
-    <t>Cell Barcode Read</t>
-  </si>
-  <si>
     <t>cDNA Read</t>
   </si>
   <si>
@@ -819,15 +966,24 @@
     <t>cDNA Read Size</t>
   </si>
   <si>
+    <t>UMI Barcode Read (optional)</t>
+  </si>
+  <si>
+    <t>UMI Barcode Offset (optional)</t>
+  </si>
+  <si>
+    <t>UMI Barcode Size (optional)</t>
+  </si>
+  <si>
+    <t>Cell Barcode Read (optional)</t>
+  </si>
+  <si>
     <t>Cell Barcode Offset (optional)</t>
   </si>
   <si>
     <t>Cell Barcode Size (optional)</t>
   </si>
   <si>
-    <t>Cell Barcode Read (optional)</t>
-  </si>
-  <si>
     <t>cDNA Read Offset (optional)</t>
   </si>
   <si>
@@ -862,6 +1018,27 @@
   </si>
   <si>
     <t>e.g. 1000000</t>
+  </si>
+  <si>
+    <t>The type of read that contains the Unique Molecular Identifier (UMI) barcode.</t>
+  </si>
+  <si>
+    <t>e.g. index2</t>
+  </si>
+  <si>
+    <t>The offset in sequence of the Unique Molecular Identifier (UMI) identifying barcode.</t>
+  </si>
+  <si>
+    <t>e.g. 0</t>
+  </si>
+  <si>
+    <t>The size of the Unique Molecular Identifier (UMI) identifying barcode.</t>
+  </si>
+  <si>
+    <t>The type of read that contains the UMI barcode.</t>
+  </si>
+  <si>
+    <t>e.g. index1</t>
   </si>
   <si>
     <t>The offset in sequence of the cell identifying barcode.</t>
@@ -871,15 +1048,6 @@
 E.g. "0".</t>
   </si>
   <si>
-    <t>e.g. 0</t>
-  </si>
-  <si>
-    <t>The type of read that contains the UMI barcode.</t>
-  </si>
-  <si>
-    <t>e.g. index1</t>
-  </si>
-  <si>
     <t>The actual nucleotide sequence obtained from Complementary DNA (cDNA) during sequencing.</t>
   </si>
   <si>
@@ -965,9 +1133,64 @@
     <t>e.g. barcodes.tsv</t>
   </si>
   <si>
+    <t>File Derived From</t>
+  </si>
+  <si>
+    <t>Inferred Cell Type</t>
+  </si>
+  <si>
+    <t>Post Analysis Cell Well Quality</t>
+  </si>
+  <si>
+    <t>Other Derived Cell Attributes</t>
+  </si>
+  <si>
+    <t>File Derived From (optional)</t>
+  </si>
+  <si>
+    <t>Inferred Cell Type (optional)</t>
+  </si>
+  <si>
+    <t>Post Analysis Cell Well Quality (optional)</t>
+  </si>
+  <si>
+    <t>Other Derived Cell Attributes (optional)</t>
+  </si>
+  <si>
+    <t>The name of the file that was used to generate the analysis derived data.</t>
+  </si>
+  <si>
+    <t>e.g. file1_sequencing.json</t>
+  </si>
+  <si>
+    <t>Post analysis cell type or identity declaration based on expression profile or known gene function identified by the performer.</t>
+  </si>
+  <si>
+    <t>e.g. type II bipolar neuron</t>
+  </si>
+  <si>
+    <t>Performer defined measure of whether the read output
+from the cell was included in the sequencing analysis. For example, cells might be excluded if a threshold percentage of reads did not map to the genome or if pre-sequencing quality measures were not passed.</t>
+  </si>
+  <si>
+    <t>e.g. Passed</t>
+  </si>
+  <si>
+    <t>Any other cell level measurement or annotation as result of the analysis.</t>
+  </si>
+  <si>
+    <t>e.g. cluster</t>
+  </si>
+  <si>
     <t>Reference Genome</t>
   </si>
   <si>
+    <t>Genome Annotation</t>
+  </si>
+  <si>
+    <t>Annotation Filtering</t>
+  </si>
+  <si>
     <t>Genes vs Exons</t>
   </si>
   <si>
@@ -998,9 +1221,24 @@
     <t>Predicted Doublet Rate QC</t>
   </si>
   <si>
+    <t>Individual Organism SNP Demultiplexing</t>
+  </si>
+  <si>
+    <t>UMIs/Barcode Distribution QC</t>
+  </si>
+  <si>
+    <t>Cell/Non-Cell Filtering Strategy</t>
+  </si>
+  <si>
     <t>Reference Genome (optional)</t>
   </si>
   <si>
+    <t>Genome Annotation (optional)</t>
+  </si>
+  <si>
+    <t>Annotation Filtering (optional)</t>
+  </si>
+  <si>
     <t>Genes vs Exons (optional)</t>
   </si>
   <si>
@@ -1031,12 +1269,33 @@
     <t>Predicted Doublet Rate QC (optional)</t>
   </si>
   <si>
+    <t>Individual Organism SNP Demultiplexing (optional)</t>
+  </si>
+  <si>
+    <t>UMIs/Barcode Distribution QC (optional)</t>
+  </si>
+  <si>
+    <t>Cell/Non-Cell Filtering Strategy (optional)</t>
+  </si>
+  <si>
     <t>Indicate version and include stable link to genome data (or attach genome fasta file).</t>
   </si>
   <si>
     <t>e.g. GRCh38, https://example.org/grch38.fa</t>
   </si>
   <si>
+    <t>Indicate version and include stable link. Also indicate if any modification to the original annotation has been applied (e.g. 3' UTR extension) and include modified annotation file employed in the analysis.</t>
+  </si>
+  <si>
+    <t>e.g. Ensembl v101, https://example.org/ensembl_v101.gtf</t>
+  </si>
+  <si>
+    <t>Indicate which features were filtered (i.e. protein coding, pseudo-genes, TCRs, etc.)</t>
+  </si>
+  <si>
+    <t>e.g. Filtered to include only protein-coding genes</t>
+  </si>
+  <si>
     <t>Quantification using whole gene intervals or exons.</t>
   </si>
   <si>
@@ -1055,9 +1314,6 @@
     <t>e.g. Cell Ranger 6.0.0</t>
   </si>
   <si>
-    <t>Statistics of the Reads or Unique Molecular Identifier (UMI).</t>
-  </si>
-  <si>
     <t>e.g. 80% reads mapped to reference</t>
   </si>
   <si>
@@ -1092,6 +1348,144 @@
   </si>
   <si>
     <t>e.g. Predicted doublet rate: 1.5%</t>
+  </si>
+  <si>
+    <t>If carried out, show SNP partitioning quality (e.g. SNP UMAP embedding or covariance matrix), algorithm used</t>
+  </si>
+  <si>
+    <t>e.g. SNP UMAP embedding using CellSNP</t>
+  </si>
+  <si>
+    <t>Show UMIs per barcode distribution and threshold applied</t>
+  </si>
+  <si>
+    <t>UMI threshold used to discriminate cells from non-cells. Description of algorithm (if any) and parameters used to determine cells/non-cells.</t>
+  </si>
+  <si>
+    <t>Clustering Algorithm and Version</t>
+  </si>
+  <si>
+    <t>Clustering Parameters</t>
+  </si>
+  <si>
+    <t>Integration/Batch Correction</t>
+  </si>
+  <si>
+    <t>Clustering Algorithm and Version (optional)</t>
+  </si>
+  <si>
+    <t>Clustering Parameters (optional)</t>
+  </si>
+  <si>
+    <t>Integration/Batch Correction (optional)</t>
+  </si>
+  <si>
+    <t>If compared/integrated with existing datasets</t>
+  </si>
+  <si>
+    <t>e.g. Louvain 0.8.0</t>
+  </si>
+  <si>
+    <t>e.g. Resolution: 0.6, K-nearest neighbors: 10</t>
+  </si>
+  <si>
+    <t>e.g. Harmony v1.0</t>
+  </si>
+  <si>
+    <t>Source Code</t>
+  </si>
+  <si>
+    <t>UMI Count Matrix</t>
+  </si>
+  <si>
+    <t>Ensembl IDs</t>
+  </si>
+  <si>
+    <t>Functional Gene Annotations</t>
+  </si>
+  <si>
+    <t>Protein Models</t>
+  </si>
+  <si>
+    <t>Cell Metadata</t>
+  </si>
+  <si>
+    <t>Cluster-Level Normalised Expression Tables</t>
+  </si>
+  <si>
+    <t>Other Resource Files</t>
+  </si>
+  <si>
+    <t>Source Code (optional)</t>
+  </si>
+  <si>
+    <t>UMI Count Matrix (optional)</t>
+  </si>
+  <si>
+    <t>Ensembl IDs (optional)</t>
+  </si>
+  <si>
+    <t>Functional Gene Annotations (optional)</t>
+  </si>
+  <si>
+    <t>Protein Models (optional)</t>
+  </si>
+  <si>
+    <t>Cell Metadata (optional)</t>
+  </si>
+  <si>
+    <t>Cluster-Level Normalised Expression Tables (optional)</t>
+  </si>
+  <si>
+    <t>Other Resource Files (optional)</t>
+  </si>
+  <si>
+    <t>If any newly developed code/software has been used in the processing and downstream analysis of the dataset.</t>
+  </si>
+  <si>
+    <t>e.g. Source code is hosted on GitHub and includes custom algorithms for UMI count normalization. The repository can be found at: https://github.com/user/umi-normalization.</t>
+  </si>
+  <si>
+    <t>Gene x cell matrix with UMI counts for each gene in each cell.</t>
+  </si>
+  <si>
+    <t>e.g. The UMI count matrix is stored in a CSV file with gene IDs as rows (e.g., ENSG00000139618) and cell barcodes as columns (e.g., Cell_001, Cell_002). The matrix file is available at: https://example.com/umi_count_matrix.csv.</t>
+  </si>
+  <si>
+    <t>Gene or transcript names should be listed as Ensembl (or other standardized ID), with gene short names in metadata.</t>
+  </si>
+  <si>
+    <t>e.g. The UMI count matrix includes genes identified by their Ensembl IDs, such as 'ENSG00000139618' for the BRCA1 gene. See the full list of Ensembl IDs in the metadata file.</t>
+  </si>
+  <si>
+    <t>Any functional annotation generated/used (gene names, GOs, structural domains, etc.).</t>
+  </si>
+  <si>
+    <t>e.g. Functional gene annotations, including Gene Ontology (GO) terms, are provided in the metadata. For example, the gene 'ENSG00000139618' (BRCA1) is annotated with the GO term 'GO:0003674' (DNA binding).</t>
+  </si>
+  <si>
+    <t>FASTA file with (or stable link to) the predicted proteins associated to genes in the UMI count matrix and matching IDs.</t>
+  </si>
+  <si>
+    <t>e.g. The protein sequences for genes are provided in a FASTA file available at: https://example.com/protein_models.fasta, where each protein sequence is linked to the corresponding gene ID.</t>
+  </si>
+  <si>
+    <t>Table mapping cell IDs to cluster/cell type/broad cell type annotations.</t>
+  </si>
+  <si>
+    <t>e.g. Cell metadata includes information such as cell type annotations ('Tumor', 'Normal') and experimental conditions ('Control', 'Treatment'). This data is available in a table at: https://example.com/cell_metadata.csv.</t>
+  </si>
+  <si>
+    <t>Expression tables that show normalised gene expression at the cluster or cell-type level.</t>
+  </si>
+  <si>
+    <t>e.g. Normalised gene expression data at the cluster level is provided in a tab-delimited text file. For example, gene 'ENSG00000139618' (BRCA1) has expression values for clusters: Cluster_1: 1200, Cluster_2: 900. The full expression table is available at: https://example.com/cluster_level_expression.csv.</t>
+  </si>
+  <si>
+    <t>Necessary to re-use and interpret the data. E.g. barcode information in complex, serial multiplexing protocols (clicktags).</t>
+  </si>
+  <si>
+    <t>e.g. Barcode information used in multiplexing protocols is provided in a separate file, which can be accessed at: https://example.com/barcode_data.csv.</t>
   </si>
 </sst>
 </file>
@@ -1576,393 +1970,442 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D5:D78"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="179.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="79.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="152.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="66.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="85.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="63.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="97.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="63.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="52.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="124" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="66.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="85.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="63.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:4">
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="4:4">
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4">
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="4:4">
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4">
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4">
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="4:4">
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="4:4">
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="4:4">
-      <c r="D13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="4:4">
-      <c r="D14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="4:4">
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4">
-      <c r="D24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
-      <c r="D33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4">
-      <c r="D37" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="4:4">
-      <c r="D38" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="4:4">
-      <c r="D39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="4:4">
-      <c r="D40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="4:4">
-      <c r="D41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="4:4">
-      <c r="D42" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="4:4">
-      <c r="D43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="4:4">
-      <c r="D44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="4:4">
-      <c r="D45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4">
-      <c r="D46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="4:4">
-      <c r="D47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="4:4">
-      <c r="D48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4">
-      <c r="D51" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4">
-      <c r="D52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4">
-      <c r="D55" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4">
-      <c r="D56" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4">
-      <c r="D57" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="4:4">
-      <c r="D58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="4:4">
-      <c r="D59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="4:4">
-      <c r="D60" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="4:4">
-      <c r="D61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="4:4">
-      <c r="D62" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="4:4">
-      <c r="D63" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="4:4">
-      <c r="D64" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="4:4">
-      <c r="D65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="4:4">
-      <c r="D66" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4">
-      <c r="D67" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="4:4">
-      <c r="D68" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" spans="4:4">
-      <c r="D69" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="4:4">
-      <c r="D70" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="71" spans="4:4">
-      <c r="D71" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="4:4">
-      <c r="D72" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="4:4">
-      <c r="D73" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4">
-      <c r="D74" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="4:4">
-      <c r="D75" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="4:4">
-      <c r="D76" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="77" spans="4:4">
-      <c r="D77" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="4:4">
-      <c r="D78" t="s">
-        <v>122</v>
-      </c>
+    <row r="1" spans="1:25">
+      <c r="A1" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:Y4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:Y4">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(A1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="16">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(B5, ROW(INDIRECT("1:"&amp;LEN(B5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(C5, ROW(INDIRECT("1:"&amp;LEN(C5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(D5, ROW(INDIRECT("1:"&amp;LEN(D5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(E5, ROW(INDIRECT("1:"&amp;LEN(E5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(F5, ROW(INDIRECT("1:"&amp;LEN(F5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(G5, ROW(INDIRECT("1:"&amp;LEN(G5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(H5, ROW(INDIRECT("1:"&amp;LEN(H5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(I5, ROW(INDIRECT("1:"&amp;LEN(I5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(J5, ROW(INDIRECT("1:"&amp;LEN(J5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(K5, ROW(INDIRECT("1:"&amp;LEN(K5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(L5, ROW(INDIRECT("1:"&amp;LEN(L5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(M5, ROW(INDIRECT("1:"&amp;LEN(M5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(N5, ROW(INDIRECT("1:"&amp;LEN(N5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(O5, ROW(INDIRECT("1:"&amp;LEN(O5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(P5, ROW(INDIRECT("1:"&amp;LEN(P5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:C4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:C4">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(A1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(B5, ROW(INDIRECT("1:"&amp;LEN(B5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(C5, ROW(INDIRECT("1:"&amp;LEN(C5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1970,91 +2413,92 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="100" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="111" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="154.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="198.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="152.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="187.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="170.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="191.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="135" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
+      <c r="A1" s="5" t="s">
+        <v>462</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>27</v>
+        <v>463</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>28</v>
+        <v>464</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>29</v>
+        <v>465</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>30</v>
+        <v>466</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>31</v>
+        <v>467</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>32</v>
+        <v>468</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>33</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>34</v>
+        <v>470</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>472</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>474</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>40</v>
+        <v>476</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>478</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>44</v>
+        <v>480</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>44</v>
+        <v>482</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>47</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>471</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>473</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>475</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>477</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>479</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>45</v>
+        <v>481</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>46</v>
+        <v>483</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>48</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2084,13 +2528,13 @@
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1005">
-      <formula1>AND(LEN(B5)&gt;0, CODE(LEFT(B5,1))&gt;=65, CODE(LEFT(B5,1))&lt;=90, SUM(--ISNUMBER(FIND(MID(B5, ROW(INDIRECT("1:"&amp;LEN(B5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(B5, ROW(INDIRECT("1:"&amp;LEN(B5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(C5, ROW(INDIRECT("1:"&amp;LEN(C5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
-      <formula1>HiddenDropdowns!$D$5:$D$78</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(D5, ROW(INDIRECT("1:"&amp;LEN(D5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(E5, ROW(INDIRECT("1:"&amp;LEN(E5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
@@ -2103,6 +2547,579 @@
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(H5, ROW(INDIRECT("1:"&amp;LEN(H5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="F5:F78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="31.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="6:6">
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="6:6">
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="6:6">
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="6:6">
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="6:6">
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="6:6">
+      <c r="F10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="6:6">
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="6:6">
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="6:6">
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6">
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6">
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6">
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6">
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6">
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6">
+      <c r="F29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="6:6">
+      <c r="F30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="6:6">
+      <c r="F31" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="6:6">
+      <c r="F32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6">
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6">
+      <c r="F35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="6:6">
+      <c r="F37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="6:6">
+      <c r="F40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="6:6">
+      <c r="F41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="6:6">
+      <c r="F42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="6:6">
+      <c r="F43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="6:6">
+      <c r="F44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="6:6">
+      <c r="F47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="6:6">
+      <c r="F48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="6:6">
+      <c r="F49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="6:6">
+      <c r="F50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="6:6">
+      <c r="F51" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="6:6">
+      <c r="F52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="6:6">
+      <c r="F54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="6:6">
+      <c r="F55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="6:6">
+      <c r="F56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="6:6">
+      <c r="F59" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="6:6">
+      <c r="F60" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="6:6">
+      <c r="F61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="6:6">
+      <c r="F62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="6:6">
+      <c r="F63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="6:6">
+      <c r="F64" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="54.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="50.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="100" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="97.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="111" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:K4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:K4">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(A1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1005">
+      <formula1>AND(LEN(B5)&gt;0, CODE(LEFT(B5,1))&gt;=65, CODE(LEFT(B5,1))&lt;=90, SUM(--ISNUMBER(FIND(MID(B5, ROW(INDIRECT("1:"&amp;LEN(B5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1005">
+      <formula1>AND(LEN(C5)&gt;0, CODE(LEFT(C5,1))&gt;=65, CODE(LEFT(C5,1))&lt;=90, SUM(--ISNUMBER(FIND(MID(C5, ROW(INDIRECT("1:"&amp;LEN(C5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(D5, ROW(INDIRECT("1:"&amp;LEN(D5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(E5, ROW(INDIRECT("1:"&amp;LEN(E5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
+      <formula1>HiddenDropdowns!$F$5:$F$78</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(G5, ROW(INDIRECT("1:"&amp;LEN(G5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(H5, ROW(INDIRECT("1:"&amp;LEN(H5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(I5, ROW(INDIRECT("1:"&amp;LEN(I5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(J5, ROW(INDIRECT("1:"&amp;LEN(J5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(K5, ROW(INDIRECT("1:"&amp;LEN(K5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2131,98 +3148,98 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2313,122 +3330,122 @@
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2505,7 +3522,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2515,171 +3532,271 @@
     <col min="2" max="2" width="70.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="128" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="120" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="106.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="61.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="72.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="60.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="61.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="64.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="66.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="79.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="128" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="59.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="84.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="108.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="122" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="131.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="97.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="67.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="120" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="86.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="106.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="61.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="72.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="60.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="53" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="61.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="64.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="66.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>220</v>
+        <v>241</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>243</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="P2" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>227</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>278</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -2698,18 +3815,28 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A4:Z4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:P4">
+  <conditionalFormatting sqref="A1:Z4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
+  <dataValidations count="26">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
@@ -2725,8 +3852,8 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(E5, ROW(INDIRECT("1:"&amp;LEN(E5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
-      <formula1>"3',5',Both"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(F5, ROW(INDIRECT("1:"&amp;LEN(F5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(G5, ROW(INDIRECT("1:"&amp;LEN(G5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
@@ -2734,28 +3861,58 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(H5, ROW(INDIRECT("1:"&amp;LEN(H5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="I5:I1005">
-      <formula1>"Dual,Single"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(J5, ROW(INDIRECT("1:"&amp;LEN(J5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(K5, ROW(INDIRECT("1:"&amp;LEN(K5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(L5, ROW(INDIRECT("1:"&amp;LEN(L5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M5:M1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(M5, ROW(INDIRECT("1:"&amp;LEN(M5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(N5, ROW(INDIRECT("1:"&amp;LEN(N5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(I5, ROW(INDIRECT("1:"&amp;LEN(I5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="J5:J1005">
+      <formula1>"Oligo-Dt,Random"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="K5:K1005">
+      <formula1>"3',5',Both"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="L5:L1005">
+      <formula1>"3,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="M5:M1005">
+      <formula1>"Antisense,Both,Sense,Unstranded"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="N5:N1005">
+      <formula1>"No,Yes"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(O5, ROW(INDIRECT("1:"&amp;LEN(O5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="P5:P1005">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(P5, ROW(INDIRECT("1:"&amp;LEN(P5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(Q5, ROW(INDIRECT("1:"&amp;LEN(Q5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(R5, ROW(INDIRECT("1:"&amp;LEN(R5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="S5:S1005">
+      <formula1>"Dual,Single"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T5:T1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(T5, ROW(INDIRECT("1:"&amp;LEN(T5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U5:U1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(U5, ROW(INDIRECT("1:"&amp;LEN(U5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V5:V1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(V5, ROW(INDIRECT("1:"&amp;LEN(V5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W5:W1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(W5, ROW(INDIRECT("1:"&amp;LEN(W5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X5:X1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(X5, ROW(INDIRECT("1:"&amp;LEN(X5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y5:Y1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(Y5, ROW(INDIRECT("1:"&amp;LEN(Y5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="Z5:Z1005">
       <formula1>"Cd41+,Cd41-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2765,7 +3922,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2776,119 +3933,159 @@
     <col min="3" max="3" width="126.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="48.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="85.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="147.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="48.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="85.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="147.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>262</v>
+        <v>315</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>318</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>339</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>193</v>
+        <v>332</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>284</v>
+        <v>201</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>288</v>
+        <v>201</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>334</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -2902,18 +4099,22 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A4:O4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:K4">
+  <conditionalFormatting sqref="A1:O4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="11">
+  <dataValidations count="14">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
@@ -2929,23 +4130,32 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(E5, ROW(INDIRECT("1:"&amp;LEN(E5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1005">
-      <formula1>AND(ISNUMBER(F5+0), INT(F5+0)=F5+0)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
+      <formula1>"Index1,Index2,Read1,Read2"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1005">
       <formula1>AND(ISNUMBER(G5+0), INT(G5+0)=G5+0)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="H5:H1005">
-      <formula1>"Index1,Index2,Read1,Read2"</formula1>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1005">
+      <formula1>AND(ISNUMBER(H5+0), INT(H5+0)=H5+0)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="I5:I1005">
       <formula1>"Index1,Index2,Read1,Read2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="J5:J1005">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1005">
+      <formula1>AND(ISNUMBER(J5+0), INT(J5+0)=J5+0)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1005">
+      <formula1>AND(ISNUMBER(K5+0), INT(K5+0)=K5+0)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="L5:L1005">
       <formula1>"Index1,Index2,Read1,Read2"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(K5, ROW(INDIRECT("1:"&amp;LEN(K5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="M5:M1005">
+      <formula1>"Index1,Index2,Read1,Read2"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N1005">
+      <formula1>AND(SUM(--ISNUMBER(FIND(MID(N5, ROW(INDIRECT("1:"&amp;LEN(N5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2971,89 +4181,89 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>291</v>
+        <v>346</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>293</v>
+        <v>348</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>298</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>299</v>
+        <v>354</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>301</v>
+        <v>356</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>303</v>
+        <v>358</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>307</v>
+        <v>362</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>309</v>
+        <v>364</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>311</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>300</v>
+        <v>355</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>302</v>
+        <v>357</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>308</v>
+        <v>363</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>310</v>
+        <v>365</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>312</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3114,188 +4324,90 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="79.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="152.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="66.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="85.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="63.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="112.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="185.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:K4">
+  <conditionalFormatting sqref="A1:D4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="11">
+  <dataValidations count="4">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(B5, ROW(INDIRECT("1:"&amp;LEN(B5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(C5, ROW(INDIRECT("1:"&amp;LEN(C5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(D5, ROW(INDIRECT("1:"&amp;LEN(D5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(E5, ROW(INDIRECT("1:"&amp;LEN(E5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(F5, ROW(INDIRECT("1:"&amp;LEN(F5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(G5, ROW(INDIRECT("1:"&amp;LEN(G5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(H5, ROW(INDIRECT("1:"&amp;LEN(H5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(I5, ROW(INDIRECT("1:"&amp;LEN(I5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(J5, ROW(INDIRECT("1:"&amp;LEN(J5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(K5, ROW(INDIRECT("1:"&amp;LEN(K5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="C5:C1005">
+      <formula1>"Fail,Pass"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
+      <formula1>"Cluster,Count,Gene,Tsne Coordinates,Umi"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dist/checklists/core/xlsx/mixs/sc_rnaseq_mixs_core.xlsx
+++ b/dist/checklists/core/xlsx/mixs/sc_rnaseq_mixs_core.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="482">
   <si>
     <t>Study ID</t>
   </si>
@@ -114,7 +114,7 @@
     <t>Accession Number</t>
   </si>
   <si>
-    <t>Geographic Location Name</t>
+    <t>Geographic Location (Country and/or Sea, Region)</t>
   </si>
   <si>
     <t>Specific Host (optional)</t>
@@ -144,7 +144,7 @@
     <t>Accession Number (optional)</t>
   </si>
   <si>
-    <t>Geographic Location Name (optional)</t>
+    <t>Geographic Location (Country and/or Sea, Region) (optional)</t>
   </si>
   <si>
     <t>A unique alphanumeric reference or identifier for the study.</t>
@@ -153,12 +153,15 @@
     <t>e.g. study123</t>
   </si>
   <si>
+    <t>Report the host's taxonomic name and/or NCBI taxonomy ID</t>
+  </si>
+  <si>
+    <t>e.g. Arenicola marina</t>
+  </si>
+  <si>
     <t>The full scientific name of the species studied.</t>
   </si>
   <si>
-    <t>e.g. Arenicola marina</t>
-  </si>
-  <si>
     <t>An identifier of the strain of the organism, if applicable.</t>
   </si>
   <si>
@@ -192,10 +195,10 @@
     <t>e.g. accession123</t>
   </si>
   <si>
-    <t>A list (concatenated and separated) of geographic names less specific than the information captured in the dwc:locality term.</t>
-  </si>
-  <si>
-    <t>e.g. South America | Argentina | Patagonia</t>
+    <t>The geographical origin of the sample as defined by the country or sea name followed by specific region name. Country or sea names should be chosen from the INSDC country list (http://insdc.org/country.html), or the GAZ ontology (http://purl.bioontology.org/ontology/GAZ)</t>
+  </si>
+  <si>
+    <t>e.g. USA: Maryland, Bethesda</t>
   </si>
   <si>
     <t>Abdomen</t>
@@ -780,7 +783,7 @@
     <t>A unique alphanumeric code for the cell suspension for the library preparation.</t>
   </si>
   <si>
-    <t>The kit used for library preparation.</t>
+    <t>Packaged kits (containing adapters, indexes, enzymes, buffers etc.), tailored for specific sequencing workflows, which allow the simplified preparation of sequencing-ready libraries for small genomes, amplicons, and plasmids</t>
   </si>
   <si>
     <t>e.g. 10X Genomics Single Cell 3' v3</t>
@@ -1224,12 +1227,6 @@
     <t>Individual Organism SNP Demultiplexing</t>
   </si>
   <si>
-    <t>UMIs/Barcode Distribution QC</t>
-  </si>
-  <si>
-    <t>Cell/Non-Cell Filtering Strategy</t>
-  </si>
-  <si>
     <t>Reference Genome (optional)</t>
   </si>
   <si>
@@ -1272,12 +1269,6 @@
     <t>Individual Organism SNP Demultiplexing (optional)</t>
   </si>
   <si>
-    <t>UMIs/Barcode Distribution QC (optional)</t>
-  </si>
-  <si>
-    <t>Cell/Non-Cell Filtering Strategy (optional)</t>
-  </si>
-  <si>
     <t>Indicate version and include stable link to genome data (or attach genome fasta file).</t>
   </si>
   <si>
@@ -1314,6 +1305,9 @@
     <t>e.g. Cell Ranger 6.0.0</t>
   </si>
   <si>
+    <t>Statistics of the Reads or Unique Molecular Identifier (UMI).</t>
+  </si>
+  <si>
     <t>e.g. 80% reads mapped to reference</t>
   </si>
   <si>
@@ -1354,12 +1348,6 @@
   </si>
   <si>
     <t>e.g. SNP UMAP embedding using CellSNP</t>
-  </si>
-  <si>
-    <t>Show UMIs per barcode distribution and threshold applied</t>
-  </si>
-  <si>
-    <t>UMI threshold used to discriminate cells from non-cells. Description of algorithm (if any) and parameters used to determine cells/non-cells.</t>
   </si>
   <si>
     <t>Clustering Algorithm and Version</t>
@@ -1972,7 +1960,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1984,7 +1972,7 @@
     <col min="4" max="4" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="63.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="79.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="152.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1992,251 +1980,141 @@
     <col min="12" max="12" width="85.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="63.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="97.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="63.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="52.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="124" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="66.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="85.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="63.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:14">
       <c r="A1" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="N1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="U1" s="5" t="s">
+      <c r="B2" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="V1" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -2253,29 +2131,18 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:Y4"/>
+    <mergeCell ref="A4:N4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:Y4">
+  <conditionalFormatting sqref="A1:N4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="16">
+  <dataValidations count="14">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
@@ -2317,12 +2184,6 @@
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N5:N1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(N5, ROW(INDIRECT("1:"&amp;LEN(N5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O5:O1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(O5, ROW(INDIRECT("1:"&amp;LEN(O5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(P5, ROW(INDIRECT("1:"&amp;LEN(P5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2342,35 +2203,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2425,80 +2286,80 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2566,372 +2427,372 @@
   <sheetData>
     <row r="5" spans="6:6">
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="6:6">
       <c r="F6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="6:6">
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="6:6">
       <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="6:6">
       <c r="F9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="6:6">
       <c r="F10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="6:6">
       <c r="F11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="6:6">
       <c r="F12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="6:6">
       <c r="F13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="6:6">
       <c r="F14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="6:6">
       <c r="F15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="6:6">
       <c r="F16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="6:6">
       <c r="F20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="6:6">
       <c r="F21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="6:6">
       <c r="F22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="6:6">
       <c r="F23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="6:6">
       <c r="F24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="6:6">
       <c r="F25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="6:6">
       <c r="F26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="6:6">
       <c r="F27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="6:6">
       <c r="F28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="6:6">
       <c r="F29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="6:6">
       <c r="F30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="6:6">
       <c r="F31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="6:6">
       <c r="F32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="6:6">
       <c r="F33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="6:6">
       <c r="F35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="6:6">
       <c r="F36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="6:6">
       <c r="F37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="6:6">
       <c r="F38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="6:6">
       <c r="F39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="6:6">
       <c r="F40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="6:6">
       <c r="F41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="6:6">
       <c r="F42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="6:6">
       <c r="F43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="6:6">
       <c r="F44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="6:6">
       <c r="F45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="6:6">
       <c r="F47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="6:6">
       <c r="F48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="6:6">
       <c r="F49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="6:6">
       <c r="F50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="6:6">
       <c r="F51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="6:6">
       <c r="F52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="6:6">
       <c r="F53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="6:6">
       <c r="F54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="6:6">
       <c r="F55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="6:6">
       <c r="F56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="6:6">
       <c r="F57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="6:6">
       <c r="F58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="6:6">
       <c r="F59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="6:6">
       <c r="F60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="6:6">
       <c r="F61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="6:6">
       <c r="F62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="6:6">
       <c r="F63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="6:6">
       <c r="F64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="6:6">
       <c r="F65" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="6:6">
       <c r="F66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="6:6">
       <c r="F67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="6:6">
       <c r="F68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="6:6">
       <c r="F69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="6:6">
       <c r="F70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="6:6">
       <c r="F71" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="6:6">
       <c r="F72" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="6:6">
       <c r="F73" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="6:6">
       <c r="F74" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" spans="6:6">
       <c r="F75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="76" spans="6:6">
       <c r="F76" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="6:6">
       <c r="F77" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="6:6">
       <c r="F78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2948,13 +2809,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="54.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="50.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="100" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="97.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="111" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="244" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3000,31 +2862,31 @@
         <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3038,28 +2900,28 @@
         <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3087,7 +2949,7 @@
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="11">
+  <dataValidations count="9">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(A5, ROW(INDIRECT("1:"&amp;LEN(A5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
@@ -3100,9 +2962,6 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(D5, ROW(INDIRECT("1:"&amp;LEN(D5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(E5, ROW(INDIRECT("1:"&amp;LEN(E5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
       <formula1>HiddenDropdowns!$F$5:$F$78</formula1>
     </dataValidation>
@@ -3117,9 +2976,6 @@
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J1005">
       <formula1>AND(SUM(--ISNUMBER(FIND(MID(J5, ROW(INDIRECT("1:"&amp;LEN(J5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K5:K1005">
-      <formula1>AND(SUM(--ISNUMBER(FIND(MID(K5, ROW(INDIRECT("1:"&amp;LEN(K5))), 1), "abcdefghijklmnopqrstuvwxyz"))) &gt; 0)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3148,98 +3004,98 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3330,122 +3186,122 @@
         <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3530,7 +3386,7 @@
   <cols>
     <col min="1" max="1" width="98.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="70.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="199.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="55.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="79.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -3558,242 +3414,242 @@
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y1" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -3922,7 +3778,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3938,154 +3794,144 @@
     <col min="8" max="8" width="62.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="48.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="85.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="147.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="85.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="147.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="44.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>310</v>
+        <v>319</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="J3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>341</v>
-      </c>
       <c r="N3" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -4102,14 +3948,13 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A4:N4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:O4">
+  <conditionalFormatting sqref="A1:N4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -4181,89 +4026,89 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4338,44 +4183,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:4">
